--- a/nop-rule/nop-rule-core/src/test/resources/_vfs/nop/rule/test/test-table.rule.xlsx
+++ b/nop-rule/nop-rule-core/src/test/resources/_vfs/nop/rule/test/test-table.rule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-rule\nop-rule-core\src\test\resources\_vfs\nop\rule\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2C0599-3788-4845-94C7-E15BC4D3A173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A39AF2-F793-4EA8-9408-78D20EF0477D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,9 +113,6 @@
     <t>编号</t>
   </si>
   <si>
-    <t>字段名</t>
-  </si>
-  <si>
     <t>数据域</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>字典</t>
   </si>
   <si>
-    <t>缺省值</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -217,6 +211,10 @@
   </si>
   <si>
     <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺省值表达式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,22 +377,10 @@
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -406,10 +392,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -417,47 +454,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -756,122 +754,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="5"/>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -891,7 +889,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -903,337 +901,343 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14" t="s">
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="11"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="11"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="18"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="24"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="24"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14" t="s">
+      <c r="H7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15" t="s">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>1</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="12"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>2</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="12"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="18"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="28"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="28"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="G12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="I12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="15" t="s">
+      <c r="O12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>1</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
-        <v>1</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22" t="s">
+      <c r="J13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="21"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
-        <v>2</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="21"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="P12" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
-        <v>1</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="21"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
     <mergeCell ref="A11:P11"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:P3"/>
@@ -1241,12 +1245,6 @@
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-rule/nop-rule-core/src/test/resources/_vfs/nop/rule/test/test-table.rule.xlsx
+++ b/nop-rule/nop-rule-core/src/test/resources/_vfs/nop/rule/test/test-table.rule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-rule\nop-rule-core\src\test\resources\_vfs\nop\rule\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A39AF2-F793-4EA8-9408-78D20EF0477D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FEC8A7-BBD7-4FFB-8D77-30397CD0F97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,11 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>输入</t>
   </si>
@@ -95,126 +91,139 @@
     <t>Summer</t>
   </si>
   <si>
+    <t>Hey, why not?</t>
+  </si>
+  <si>
+    <t>中文名</t>
+  </si>
+  <si>
+    <t>英文名</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>数据域</t>
+  </si>
+  <si>
+    <t>非空</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>长度</t>
+  </si>
+  <si>
+    <t>小数位数</t>
+  </si>
+  <si>
+    <t>字典</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test/simple-rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>season</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guestCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺省值表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"Light Salad and nice Steak"</t>
-  </si>
-  <si>
-    <t>Hey, why not?</t>
-  </si>
-  <si>
-    <t>中文名</t>
-  </si>
-  <si>
-    <t>英文名</t>
-  </si>
-  <si>
-    <t>标签</t>
-  </si>
-  <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>数据域</t>
-  </si>
-  <si>
-    <t>非空</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>长度</t>
-  </si>
-  <si>
-    <t>小数位数</t>
-  </si>
-  <si>
-    <t>字典</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test/simple-rule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩展配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>season</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>季度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guestCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺省值表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行后</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -375,7 +384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -407,6 +416,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -741,7 +759,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -754,30 +772,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -786,13 +804,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -801,13 +819,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -815,14 +833,14 @@
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -830,15 +848,15 @@
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -846,16 +864,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -863,14 +881,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -886,10 +904,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA36EB92-02AD-4172-AFC5-C8CB974C540A}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -901,229 +919,221 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
       <c r="P1" s="11"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="A2" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+        <v>23</v>
+      </c>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="24"/>
+      <c r="A3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="27"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="24"/>
+      <c r="A4" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
+      <c r="A5" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="15"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="J8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
-        <v>1</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="12"/>
+      <c r="O8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="12" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
@@ -1132,103 +1142,131 @@
       <c r="O9" s="9"/>
       <c r="P9" s="12"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>2</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="12"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>1</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="8" t="s">
+      <c r="H14" s="9"/>
+      <c r="I14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
-        <v>1</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="12"/>
+      <c r="J14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1238,13 +1276,13 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="A12:P12"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:P3"/>
-    <mergeCell ref="D4:P4"/>
+    <mergeCell ref="A7:P7"/>
     <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A5:P5"/>
     <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
